--- a/DATA_goal/Junction_Flooding_358.xlsx
+++ b/DATA_goal/Junction_Flooding_358.xlsx
@@ -446,28 +446,28 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
@@ -655,103 +655,103 @@
         <v>45118.00694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.58</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.11</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.55</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.39</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.91</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.84</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.75</v>
+        <v>7.5</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.65</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.26</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.66</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.08</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.28</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.35</v>
       </c>
       <c r="Q2" s="4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>66.34</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.38</v>
       </c>
-      <c r="R2" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.84</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.85</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.99</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.99</v>
+        <v>9.92</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45118.01388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.25</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.7</v>
+        <v>6.97</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.9</v>
+        <v>18.95</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.59</v>
+        <v>15.88</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.16</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.47</v>
+        <v>24.72</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.11</v>
+        <v>11.13</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.06</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.09</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.12</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1</v>
+        <v>10.01</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.84</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>10.11</v>
+        <v>101.06</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.99</v>
+        <v>19.91</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.28</v>
+        <v>12.83</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.48</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.53</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.6</v>
+        <v>6.02</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.69</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.9</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.25</v>
+        <v>22.47</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.1</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45118.02083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.09</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.83</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.62</v>
+        <v>16.15</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.34</v>
+        <v>13.42</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.6</v>
+        <v>6.03</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.37</v>
+        <v>23.68</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.69</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.16</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.87</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.79</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.7</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.52</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.95</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>8.4</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.69</v>
+        <v>16.86</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.4</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.1</v>
+        <v>10.99</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.23</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.26</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.89</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.92</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.49</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.17</v>
+        <v>21.68</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.39</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>45118.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.23</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.8</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.31</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.35</v>
+        <v>13.49</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.6</v>
+        <v>6.04</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.36</v>
+        <v>23.65</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.58</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.06</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.93</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.76</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>8.41</v>
+        <v>84.06</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.83</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.54</v>
+        <v>5.43</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.07</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.2</v>
+        <v>12</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.9</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.54</v>
+        <v>5.4</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.38</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.15</v>
+        <v>21.54</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.33</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.68</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_358.xlsx
+++ b/DATA_goal/Junction_Flooding_358.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45118.00694444445</v>
+        <v>45039.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.58</v>
+        <v>24.502</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.11</v>
+        <v>17.071</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>4.266</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>11.55</v>
+        <v>51.765</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.39</v>
+        <v>42.826</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.91</v>
+        <v>19.282</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>11.84</v>
+        <v>64.646</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.5</v>
+        <v>29.668</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.65</v>
+        <v>12.708</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.26</v>
+        <v>19.604</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.66</v>
+        <v>20.148</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.08</v>
+        <v>21.386</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.31</v>
+        <v>6.157</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4.28</v>
+        <v>19.174</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.35</v>
+        <v>27.062</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3.75</v>
+        <v>15.864</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.991</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.14</v>
+        <v>2.607</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>66.34</v>
+        <v>284.514</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>13.25</v>
+        <v>53.424</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.22</v>
+        <v>17.698</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.56</v>
+        <v>35.645</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>5.69</v>
+        <v>18.491</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.38</v>
+        <v>2.496</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.84</v>
+        <v>31.956</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.85</v>
+        <v>15.633</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.2</v>
+        <v>13.958</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.53</v>
+        <v>16.32</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.99</v>
+        <v>21.117</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.24</v>
+        <v>3.641</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>9.92</v>
+        <v>57.291</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.26</v>
+        <v>9.936999999999999</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5</v>
+        <v>22.127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45118.01388888889</v>
+        <v>45039.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.25</v>
+        <v>1.441</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.97</v>
+        <v>0.416</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.08</v>
+        <v>1.313</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>18.95</v>
+        <v>2.538</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>15.88</v>
+        <v>2.157</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.16</v>
+        <v>1.14</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>24.72</v>
+        <v>12.856</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.13</v>
+        <v>1.745</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.18</v>
+        <v>0.658</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.06</v>
+        <v>0.962</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.619999999999999</v>
+        <v>0.823</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.09</v>
+        <v>0.896</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.12</v>
+        <v>0.402</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.73</v>
+        <v>1.128</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.01</v>
+        <v>1.646</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.84</v>
+        <v>1.181</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.3</v>
+        <v>1.535</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.619</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>101.06</v>
+        <v>10.02</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>19.91</v>
+        <v>3.805</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.39</v>
+        <v>1.041</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>12.83</v>
+        <v>2.421</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.48</v>
+        <v>1.272</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.84</v>
+        <v>0.131</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>13.53</v>
+        <v>5.24</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.79</v>
+        <v>0.92</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.02</v>
+        <v>1.069</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.69</v>
+        <v>1.181</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>0.868</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>22.47</v>
+        <v>12.108</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.1</v>
+        <v>0.467</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.92</v>
+        <v>1.316</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45118.02083333334</v>
+        <v>45039.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.09</v>
+        <v>9.128</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.83</v>
+        <v>6.414</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>1.079</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>16.15</v>
+        <v>19.467</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>13.42</v>
+        <v>16.155</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.03</v>
+        <v>7.183</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>23.68</v>
+        <v>25.811</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.4</v>
+        <v>11.053</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.34</v>
+        <v>4.722</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.69</v>
+        <v>7.258</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.16</v>
+        <v>7.705</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.87</v>
+        <v>8.167999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.79</v>
+        <v>2.29</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.7</v>
+        <v>7.143</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.52</v>
+        <v>10.004</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.95</v>
+        <v>6.154</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.23</v>
+        <v>1.038</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.12</v>
+        <v>0.594</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>84.01000000000001</v>
+        <v>101.354</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>16.86</v>
+        <v>19.805</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.4</v>
+        <v>6.594</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>10.99</v>
+        <v>13.082</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.23</v>
+        <v>7.122</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.92</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.26</v>
+        <v>12.157</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.89</v>
+        <v>5.824</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.92</v>
+        <v>5.293</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.51</v>
+        <v>6.192</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.49</v>
+        <v>8.138</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>21.68</v>
+        <v>22.804</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.39</v>
+        <v>3.654</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.72</v>
+        <v>8.242000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45118.02777777778</v>
+        <v>45039.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.23</v>
+        <v>5.77</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.75</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>16.31</v>
+        <v>12.25</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>13.49</v>
+        <v>10.18</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.04</v>
+        <v>4.54</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>23.65</v>
+        <v>19.11</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>6.98</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.29</v>
+        <v>2.99</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.58</v>
+        <v>4.56</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.06</v>
+        <v>4.84</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.93</v>
+        <v>5.14</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.82</v>
+        <v>1.45</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.76</v>
+        <v>4.51</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>6.35</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.96</v>
+        <v>3.95</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.39</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>84.06</v>
+        <v>61.35</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>16.83</v>
+        <v>12.7</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.43</v>
+        <v>4.16</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.07</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.16</v>
+        <v>4.56</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.57</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>12</v>
+        <v>8.91</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.9</v>
+        <v>3.68</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.77</v>
+        <v>3.37</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.4</v>
+        <v>3.94</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.38</v>
+        <v>5.14</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>21.54</v>
+        <v>17.29</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.33</v>
+        <v>2.28</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.78</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45118.03472222222</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>15.19</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44.06</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>14.01</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.77</v>
+        <v>5.21</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_358.xlsx
+++ b/DATA_goal/Junction_Flooding_358.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45039.50694444445</v>
+        <v>45118.00694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>24.502</v>
+        <v>4.576</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>17.071</v>
+        <v>5.111</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.266</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>51.765</v>
+        <v>11.554</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>42.826</v>
+        <v>10.389</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>19.282</v>
+        <v>4.907</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>64.646</v>
+        <v>11.844</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>29.668</v>
+        <v>7.502</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>12.708</v>
+        <v>3.653</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>19.604</v>
+        <v>6.261</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>20.148</v>
+        <v>6.656</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>21.386</v>
+        <v>5.084</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>6.157</v>
+        <v>1.314</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>19.174</v>
+        <v>4.277</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>27.062</v>
+        <v>6.354</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.864</v>
+        <v>3.754</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.991</v>
+        <v>0.401</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.607</v>
+        <v>0.139</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>284.514</v>
+        <v>66.34</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>53.424</v>
+        <v>13.251</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>17.698</v>
+        <v>4.22</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>35.645</v>
+        <v>7.561</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>18.491</v>
+        <v>5.692</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.496</v>
+        <v>0.381</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>31.956</v>
+        <v>7.84</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>15.633</v>
+        <v>3.854</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.958</v>
+        <v>5.2</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>16.32</v>
+        <v>5.528</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>21.117</v>
+        <v>6.991</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.641</v>
+        <v>0.237</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>57.291</v>
+        <v>9.923999999999999</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.936999999999999</v>
+        <v>3.256</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>22.127</v>
+        <v>4.997</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45039.51388888889</v>
+        <v>45118.01388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.441</v>
+        <v>8.254</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.416</v>
+        <v>6.972</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.313</v>
+        <v>0.077</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.538</v>
+        <v>18.954</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.157</v>
+        <v>15.877</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.14</v>
+        <v>7.159</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>12.856</v>
+        <v>24.723</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.745</v>
+        <v>11.131</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.658</v>
+        <v>5.178</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.962</v>
+        <v>8.058999999999999</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.823</v>
+        <v>8.621</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.896</v>
+        <v>8.09</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.402</v>
+        <v>2.115</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.128</v>
+        <v>6.725</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.646</v>
+        <v>10.015</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.181</v>
+        <v>5.837</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.535</v>
+        <v>0.3</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.619</v>
+        <v>0.161</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>10.02</v>
+        <v>101.062</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.805</v>
+        <v>19.913</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.041</v>
+        <v>6.391</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.421</v>
+        <v>12.83</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.272</v>
+        <v>7.482</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.131</v>
+        <v>0.843</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.24</v>
+        <v>13.533</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.92</v>
+        <v>5.789</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.069</v>
+        <v>6.016</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.181</v>
+        <v>6.692</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.868</v>
+        <v>9.025</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.294</v>
+        <v>0.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>12.108</v>
+        <v>22.474</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.467</v>
+        <v>4.098</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.316</v>
+        <v>7.916</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45039.52083333334</v>
+        <v>45118.02083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.128</v>
+        <v>7.087</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.414</v>
+        <v>5.826</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.079</v>
+        <v>0.08</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>19.467</v>
+        <v>16.151</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>16.155</v>
+        <v>13.416</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.183</v>
+        <v>6.032</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>25.811</v>
+        <v>23.678</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.053</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.722</v>
+        <v>4.337</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.258</v>
+        <v>6.687</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.705</v>
+        <v>7.162</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.167999999999999</v>
+        <v>6.874</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.29</v>
+        <v>1.793</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.143</v>
+        <v>5.698</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.004</v>
+        <v>8.516999999999999</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.154</v>
+        <v>4.946</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.038</v>
+        <v>0.231</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.594</v>
+        <v>0.121</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>101.354</v>
+        <v>84.015</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>19.805</v>
+        <v>16.857</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.594</v>
+        <v>5.397</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>13.082</v>
+        <v>10.986</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.122</v>
+        <v>6.23</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.92</v>
+        <v>0.741</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.157</v>
+        <v>12.265</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.824</v>
+        <v>4.888</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.293</v>
+        <v>4.923</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.192</v>
+        <v>5.514</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.138</v>
+        <v>7.49</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.784</v>
+        <v>0.158</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>22.804</v>
+        <v>21.684</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.654</v>
+        <v>3.39</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.242000000000001</v>
+        <v>6.723</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45039.52777777778</v>
+        <v>45118.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.77</v>
+        <v>7.229</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4</v>
+        <v>5.803</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.75</v>
+        <v>0.116</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>12.25</v>
+        <v>16.309</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>10.18</v>
+        <v>13.492</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.54</v>
+        <v>6.036</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>19.11</v>
+        <v>23.647</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.98</v>
+        <v>9.395</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.99</v>
+        <v>4.292</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.56</v>
+        <v>6.583</v>
       </c>
       <c r="L5" s="4" t="n">
+        <v>7.059</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>6.931</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>5.759</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>8.548</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>4.962</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>84.062</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>16.83</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>5.427</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>11.074</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>6.161</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>11.997</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>4.895</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>4.774</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>5.401</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>7.383</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>21.542</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>3.334</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>6.777</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45118.03472222222</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>15.19</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="P6" s="4" t="n">
         <v>4.84</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>61.35</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>17.29</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>5.21</v>
+      <c r="Q6" s="4" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>44.06</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>14.01</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>3.77</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_358.xlsx
+++ b/DATA_goal/Junction_Flooding_358.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45118.00694444445</v>
+        <v>45039.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.576</v>
+        <v>24.502</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.111</v>
+        <v>17.071</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>4.266</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>11.554</v>
+        <v>51.765</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.389</v>
+        <v>42.826</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.907</v>
+        <v>19.282</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>11.844</v>
+        <v>64.646</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.502</v>
+        <v>29.668</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.653</v>
+        <v>12.708</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.261</v>
+        <v>19.604</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.656</v>
+        <v>20.148</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.084</v>
+        <v>21.386</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.314</v>
+        <v>6.157</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4.277</v>
+        <v>19.174</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.354</v>
+        <v>27.062</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3.754</v>
+        <v>15.864</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.401</v>
+        <v>3.991</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.139</v>
+        <v>2.607</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>66.34</v>
+        <v>284.514</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>13.251</v>
+        <v>53.424</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.22</v>
+        <v>17.698</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.561</v>
+        <v>35.645</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>5.692</v>
+        <v>18.491</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.381</v>
+        <v>2.496</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.84</v>
+        <v>31.956</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.854</v>
+        <v>15.633</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.2</v>
+        <v>13.958</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.528</v>
+        <v>16.32</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.991</v>
+        <v>21.117</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.237</v>
+        <v>3.641</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>9.923999999999999</v>
+        <v>57.291</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.256</v>
+        <v>9.936999999999999</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>4.997</v>
+        <v>22.127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45118.01388888889</v>
+        <v>45039.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.254</v>
+        <v>1.441</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.972</v>
+        <v>0.416</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.077</v>
+        <v>1.313</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>18.954</v>
+        <v>2.538</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>15.877</v>
+        <v>2.157</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.159</v>
+        <v>1.14</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>24.723</v>
+        <v>12.856</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.131</v>
+        <v>1.745</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.178</v>
+        <v>0.658</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.058999999999999</v>
+        <v>0.962</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.621</v>
+        <v>0.823</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.09</v>
+        <v>0.896</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.115</v>
+        <v>0.402</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.725</v>
+        <v>1.128</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.015</v>
+        <v>1.646</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.837</v>
+        <v>1.181</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.3</v>
+        <v>1.535</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.161</v>
+        <v>0.619</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>101.062</v>
+        <v>10.02</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>19.913</v>
+        <v>3.805</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.391</v>
+        <v>1.041</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>12.83</v>
+        <v>2.421</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.482</v>
+        <v>1.272</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.843</v>
+        <v>0.131</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>13.533</v>
+        <v>5.24</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.789</v>
+        <v>0.92</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.016</v>
+        <v>1.069</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.692</v>
+        <v>1.181</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.025</v>
+        <v>0.868</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>22.474</v>
+        <v>12.108</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.098</v>
+        <v>0.467</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.916</v>
+        <v>1.316</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45118.02083333334</v>
+        <v>45039.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.087</v>
+        <v>9.128</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.826</v>
+        <v>6.414</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>1.079</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>16.151</v>
+        <v>19.467</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>13.416</v>
+        <v>16.155</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.032</v>
+        <v>7.183</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>23.678</v>
+        <v>25.811</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.398999999999999</v>
+        <v>11.053</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.337</v>
+        <v>4.722</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.687</v>
+        <v>7.258</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.162</v>
+        <v>7.705</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.874</v>
+        <v>8.167999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.793</v>
+        <v>2.29</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.698</v>
+        <v>7.143</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.516999999999999</v>
+        <v>10.004</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.946</v>
+        <v>6.154</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.231</v>
+        <v>1.038</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.121</v>
+        <v>0.594</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>84.015</v>
+        <v>101.354</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>16.857</v>
+        <v>19.805</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.397</v>
+        <v>6.594</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>10.986</v>
+        <v>13.082</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.23</v>
+        <v>7.122</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.741</v>
+        <v>0.92</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>12.265</v>
+        <v>12.157</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.888</v>
+        <v>5.824</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.923</v>
+        <v>5.293</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.514</v>
+        <v>6.192</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.49</v>
+        <v>8.138</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.158</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>21.684</v>
+        <v>22.804</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.39</v>
+        <v>3.654</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.723</v>
+        <v>8.242000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45118.02777777778</v>
+        <v>45039.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.229</v>
+        <v>5.77</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.803</v>
+        <v>4</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.116</v>
+        <v>0.75</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>16.309</v>
+        <v>12.25</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>13.492</v>
+        <v>10.18</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.036</v>
+        <v>4.54</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>23.647</v>
+        <v>19.11</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.395</v>
+        <v>6.98</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.292</v>
+        <v>2.99</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.583</v>
+        <v>4.56</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.059</v>
+        <v>4.84</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.931</v>
+        <v>5.14</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.817</v>
+        <v>1.45</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.759</v>
+        <v>4.51</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.548</v>
+        <v>6.35</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.962</v>
+        <v>3.95</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.197</v>
+        <v>0.75</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.132</v>
+        <v>0.39</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>84.062</v>
+        <v>61.35</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>16.83</v>
+        <v>12.7</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.427</v>
+        <v>4.16</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.074</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.161</v>
+        <v>4.56</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.57</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>11.997</v>
+        <v>8.91</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.895</v>
+        <v>3.68</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.774</v>
+        <v>3.37</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.401</v>
+        <v>3.94</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.383</v>
+        <v>5.14</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.129</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>21.542</v>
+        <v>17.29</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.334</v>
+        <v>2.28</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.777</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45118.03472222222</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>15.19</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44.06</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>14.01</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.77</v>
+        <v>5.21</v>
       </c>
     </row>
   </sheetData>
